--- a/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>4</v>

--- a/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
@@ -450,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C3">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>6</v>

--- a/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>3</v>
